--- a/relacionCursos.xlsx
+++ b/relacionCursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="12340" windowWidth="18260" windowHeight="8760" tabRatio="500"/>
+    <workbookView xWindow="3560" yWindow="3240" windowWidth="24020" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>CURSO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>EN PROCESO</t>
   </si>
@@ -54,9 +51,6 @@
     <t>PostCSS</t>
   </si>
   <si>
-    <t>157 min</t>
-  </si>
-  <si>
     <t>CSS Grid Layout</t>
   </si>
   <si>
@@ -82,6 +76,63 @@
   </si>
   <si>
     <t>Programación Básica</t>
+  </si>
+  <si>
+    <t>WPO: Optimización de Carga de Sitios Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURSO </t>
+  </si>
+  <si>
+    <t>Curso de Desarrollo Web Online</t>
+  </si>
+  <si>
+    <t>Curso profesional de Git y GitHub</t>
+  </si>
+  <si>
+    <t>Curso de CSS Grid Layout</t>
+  </si>
+  <si>
+    <t>Curso de Responsive Design</t>
+  </si>
+  <si>
+    <t>Curso de Animaciones para la Web</t>
+  </si>
+  <si>
+    <t>Curso de Sass</t>
+  </si>
+  <si>
+    <t>Curso de Stylus</t>
+  </si>
+  <si>
+    <t>Curso de Less</t>
+  </si>
+  <si>
+    <t>Curso de Bootstrap</t>
+  </si>
+  <si>
+    <t>Curso de Foundation</t>
+  </si>
+  <si>
+    <t>Curso de PostCSS</t>
+  </si>
+  <si>
+    <t>Curso de Bots con Facebook Messenger</t>
+  </si>
+  <si>
+    <t>Curso de AMP</t>
+  </si>
+  <si>
+    <t>Curso de WPO: Optimización de Carga de Sitios Web</t>
+  </si>
+  <si>
+    <t>Curso de Sistemas de Diseño para Desarrolladores</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA  FRONTEND</t>
+  </si>
+  <si>
+    <t>Sistemas de Diseño para Desarrolladores</t>
   </si>
 </sst>
 </file>
@@ -132,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,12 +193,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFD6464"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,8 +214,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF218A77"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBFFA6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -193,8 +262,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -224,16 +334,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -242,20 +380,41 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="57">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -270,6 +429,20 @@
     <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -284,6 +457,20 @@
     <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -613,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0"/>
@@ -624,173 +811,253 @@
     <col min="1" max="1" width="49" style="2" customWidth="1"/>
     <col min="2" max="4" width="19.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="6" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="50.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="G2" s="13"/>
+      <c r="H2" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="E3" s="8"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="G4" s="13"/>
+      <c r="H4" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="E5" s="7"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="E7" s="4"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="E8" s="4"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="G9" s="12"/>
+      <c r="H9" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="G10" s="12"/>
+      <c r="H10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="G11" s="12"/>
+      <c r="H11" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="G12" s="12"/>
+      <c r="H12" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="G13" s="12"/>
+      <c r="H13" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="G14" s="12"/>
+      <c r="H14" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="G15" s="12"/>
+      <c r="H15" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="G16" s="12"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/relacionCursos.xlsx
+++ b/relacionCursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="3240" windowWidth="24020" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="17720" yWindow="11260" windowWidth="16900" windowHeight="7840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -304,8 +304,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -414,7 +416,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="59">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -443,6 +445,7 @@
     <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -471,6 +474,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -802,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0"/>
@@ -958,7 +962,7 @@
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
